--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna4</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H2">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N2">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q2">
-        <v>0.003594856039555555</v>
+        <v>0.06152162034444445</v>
       </c>
       <c r="R2">
-        <v>0.032353704356</v>
+        <v>0.5536945831000001</v>
       </c>
       <c r="S2">
-        <v>0.01554070428614173</v>
+        <v>0.07382503865531215</v>
       </c>
       <c r="T2">
-        <v>0.01554070428614173</v>
+        <v>0.07382503865531213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,60 +596,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H3">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N3">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q3">
-        <v>0.05089840247777778</v>
+        <v>0.2322567168044445</v>
       </c>
       <c r="R3">
-        <v>0.4580856223000001</v>
+        <v>2.09031045124</v>
       </c>
       <c r="S3">
-        <v>0.2200357991642863</v>
+        <v>0.2787046407432986</v>
       </c>
       <c r="T3">
-        <v>0.2200357991642863</v>
+        <v>0.2787046407432985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8339443333333333</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H4">
-        <v>2.501833</v>
+        <v>4.612615</v>
       </c>
       <c r="I4">
-        <v>0.305203232930382</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J4">
-        <v>0.305203232930382</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.019313</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N4">
-        <v>0.057939</v>
+        <v>0.1831</v>
       </c>
       <c r="O4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q4">
-        <v>0.01610596690966667</v>
+        <v>0.09384108961111111</v>
       </c>
       <c r="R4">
-        <v>0.144953702187</v>
+        <v>0.8445698065</v>
       </c>
       <c r="S4">
-        <v>0.06962672947995403</v>
+        <v>0.1126079259487919</v>
       </c>
       <c r="T4">
-        <v>0.06962672947995402</v>
+        <v>0.1126079259487919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,72 +726,72 @@
         <v>4.612615</v>
       </c>
       <c r="I5">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J5">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004310666666666667</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N5">
-        <v>0.012932</v>
+        <v>0.69124</v>
       </c>
       <c r="O5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q5">
-        <v>0.006627815242222222</v>
+        <v>0.3542693325111111</v>
       </c>
       <c r="R5">
-        <v>0.05965033717999999</v>
+        <v>3.1884239926</v>
       </c>
       <c r="S5">
-        <v>0.02865230640926937</v>
+        <v>0.4251179832487324</v>
       </c>
       <c r="T5">
-        <v>0.02865230640926937</v>
+        <v>0.4251179832487324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.537538333333333</v>
+        <v>0.313796</v>
       </c>
       <c r="H6">
-        <v>4.612615</v>
+        <v>0.941388</v>
       </c>
       <c r="I6">
-        <v>0.5627014314157557</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J6">
-        <v>0.5627014314157556</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,54 +806,54 @@
         <v>0.1831</v>
       </c>
       <c r="O6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q6">
-        <v>0.09384108961111111</v>
+        <v>0.01915201586666667</v>
       </c>
       <c r="R6">
-        <v>0.8445698065</v>
+        <v>0.1723681428</v>
       </c>
       <c r="S6">
-        <v>0.4056787274618948</v>
+        <v>0.02298213707258926</v>
       </c>
       <c r="T6">
-        <v>0.4056787274618947</v>
+        <v>0.02298213707258926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.537538333333333</v>
+        <v>0.313796</v>
       </c>
       <c r="H7">
-        <v>4.612615</v>
+        <v>0.941388</v>
       </c>
       <c r="I7">
-        <v>0.5627014314157557</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J7">
-        <v>0.5627014314157556</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,400 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.019313</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N7">
-        <v>0.057939</v>
+        <v>0.69124</v>
       </c>
       <c r="O7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q7">
-        <v>0.02969447783166667</v>
+        <v>0.07230278234666666</v>
       </c>
       <c r="R7">
-        <v>0.267250300485</v>
+        <v>0.65072504112</v>
       </c>
       <c r="S7">
-        <v>0.1283703975445916</v>
+        <v>0.0867622743312758</v>
       </c>
       <c r="T7">
-        <v>0.1283703975445915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3210486666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.9631460000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="J8">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.004310666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.012932</v>
-      </c>
-      <c r="O8">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="P8">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="Q8">
-        <v>0.001383933785777778</v>
-      </c>
-      <c r="R8">
-        <v>0.012455404072</v>
-      </c>
-      <c r="S8">
-        <v>0.005982800278987552</v>
-      </c>
-      <c r="T8">
-        <v>0.005982800278987551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.3210486666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.9631460000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="J9">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06103333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.1831</v>
-      </c>
-      <c r="O9">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="P9">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="Q9">
-        <v>0.01959467028888889</v>
-      </c>
-      <c r="R9">
-        <v>0.1763520326</v>
-      </c>
-      <c r="S9">
-        <v>0.08470853163336071</v>
-      </c>
-      <c r="T9">
-        <v>0.08470853163336071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3210486666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.9631460000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="J10">
-        <v>0.1174959611548676</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.019313</v>
-      </c>
-      <c r="N10">
-        <v>0.057939</v>
-      </c>
-      <c r="O10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q10">
-        <v>0.006200412899333334</v>
-      </c>
-      <c r="R10">
-        <v>0.055803716094</v>
-      </c>
-      <c r="S10">
-        <v>0.02680462924251931</v>
-      </c>
-      <c r="T10">
-        <v>0.02680462924251931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.119675</v>
-      </c>
-      <c r="I11">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J11">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.004310666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.012932</v>
-      </c>
-      <c r="O11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="P11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="Q11">
-        <v>0.0001719596777777778</v>
-      </c>
-      <c r="R11">
-        <v>0.0015476371</v>
-      </c>
-      <c r="S11">
-        <v>0.000743388461757444</v>
-      </c>
-      <c r="T11">
-        <v>0.0007433884617574439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.119675</v>
-      </c>
-      <c r="I12">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J12">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.06103333333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.1831</v>
-      </c>
-      <c r="O12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="P12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="Q12">
-        <v>0.002434721388888889</v>
-      </c>
-      <c r="R12">
-        <v>0.0219124925</v>
-      </c>
-      <c r="S12">
-        <v>0.01052539648529137</v>
-      </c>
-      <c r="T12">
-        <v>0.01052539648529137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.119675</v>
-      </c>
-      <c r="I13">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J13">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.019313</v>
-      </c>
-      <c r="N13">
-        <v>0.057939</v>
-      </c>
-      <c r="O13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q13">
-        <v>0.0007704277583333334</v>
-      </c>
-      <c r="R13">
-        <v>0.006933849824999999</v>
-      </c>
-      <c r="S13">
-        <v>0.003330589551945914</v>
-      </c>
-      <c r="T13">
-        <v>0.003330589551945913</v>
+        <v>0.0867622743312758</v>
       </c>
     </row>
   </sheetData>
